--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>894559.9743931587</v>
+        <v>818687.3099882312</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431491.382910917</v>
+        <v>431491.3829109171</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12084479.76041391</v>
+        <v>12084479.7604139</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7434922.061104047</v>
+        <v>7434922.061104046</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="U3" t="n">
-        <v>178.3785751003045</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.4132168533396</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>29.14270706479791</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>7.837102735344149</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.4837081715351</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>95.42582972474233</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I11" t="n">
-        <v>178.9002608012674</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>132.570061845901</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4.370674261715346</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>103.8058312551188</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>74.30881812140657</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.18960571093579</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.66360464806522</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>217.6140207606494</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>311.4710355892511</v>
       </c>
       <c r="C14" t="n">
-        <v>274.3260905260096</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.4837081715351</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>24.31535240259273</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>106.078478955447</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>74.30881812140657</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T15" t="n">
         <v>198.3983972633722</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.39827731939934</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.8793480893153</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>123.7529098367821</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>311.4710355892522</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.4837081715351</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>263.736240375684</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>155.4751171401267</v>
+        <v>117.1749576283322</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1940,7 +1940,7 @@
         <v>136.905297830925</v>
       </c>
       <c r="H18" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.94979525863033</v>
+        <v>72.94979525863037</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>198.3983972633722</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>123.7529098367826</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>123.7529098367822</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.4837081715351</v>
       </c>
       <c r="H20" t="n">
-        <v>331.0869178506238</v>
+        <v>301.2568736765567</v>
       </c>
       <c r="I20" t="n">
-        <v>174.1929312563768</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>140.5988946271134</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>66.06270944984036</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.94979525863033</v>
+        <v>72.94979525863037</v>
       </c>
       <c r="S21" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>157.9142565039483</v>
+        <v>157.914256503948</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>352.0426595656929</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>209.5972717395336</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>213.6113417665674</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>263.185762001311</v>
+        <v>123.0155303306638</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.769908071584796</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>327.9428964074126</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>101.0648684641362</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.3197306044666</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>42.1516239251994</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>167.1138608531439</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>105.3980171505011</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>376.184863643924</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>311.4936872159395</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>94.92589417054654</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>66.23525597315229</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>43.31785343913925</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3796,19 +3796,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>91.99099930759971</v>
       </c>
       <c r="V41" t="n">
-        <v>241.7627700121617</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>116.1430940756183</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>181.9787044875753</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>99.78378017339051</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.0891638436803</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.7447050367114</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>376.1934816808115</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>376.1934816808115</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>376.1934816808115</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>376.1934816808115</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.1033079837604</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U3" t="n">
-        <v>307.1033079837604</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V3" t="n">
-        <v>307.1033079837604</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W3" t="n">
-        <v>307.1033079837604</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X3" t="n">
-        <v>307.1033079837604</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y3" t="n">
-        <v>307.1033079837604</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>156.0621702347982</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>512.7568786610034</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>487.4018176583718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>487.4018176583718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>243.9530410142718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,43 +4892,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>956.1408901213997</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4992,22 +4992,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.578907578026</v>
+        <v>783.1887130933133</v>
       </c>
       <c r="C11" t="n">
-        <v>1888.578907578026</v>
+        <v>783.1887130933133</v>
       </c>
       <c r="D11" t="n">
-        <v>1530.313208971276</v>
+        <v>783.1887130933133</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.524956373032</v>
+        <v>783.1887130933133</v>
       </c>
       <c r="F11" t="n">
-        <v>733.539051583424</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="G11" t="n">
-        <v>314.8686392889441</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="H11" t="n">
-        <v>218.4789122942549</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I11" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J11" t="n">
         <v>94.76073252434981</v>
       </c>
       <c r="K11" t="n">
-        <v>300.9175062625698</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L11" t="n">
-        <v>608.9498412559819</v>
+        <v>608.9498412559815</v>
       </c>
       <c r="M11" t="n">
-        <v>968.3017108859934</v>
+        <v>968.3017108859926</v>
       </c>
       <c r="N11" t="n">
         <v>1318.836271911618</v>
       </c>
       <c r="O11" t="n">
-        <v>1604.648480067584</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P11" t="n">
-        <v>1810.908204322029</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q11" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R11" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S11" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T11" t="n">
-        <v>1888.578907578026</v>
+        <v>1754.669754198327</v>
       </c>
       <c r="U11" t="n">
-        <v>1888.578907578026</v>
+        <v>1500.851440501006</v>
       </c>
       <c r="V11" t="n">
-        <v>1888.578907578026</v>
+        <v>1169.788553157435</v>
       </c>
       <c r="W11" t="n">
-        <v>1888.578907578026</v>
+        <v>1169.788553157435</v>
       </c>
       <c r="X11" t="n">
-        <v>1888.578907578026</v>
+        <v>1169.788553157435</v>
       </c>
       <c r="Y11" t="n">
-        <v>1888.578907578026</v>
+        <v>1169.788553157435</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>650.1669134880381</v>
+        <v>587.16780979748</v>
       </c>
       <c r="C12" t="n">
-        <v>475.7138842069111</v>
+        <v>412.714780516353</v>
       </c>
       <c r="D12" t="n">
-        <v>326.7794745456598</v>
+        <v>263.7803708551018</v>
       </c>
       <c r="E12" t="n">
-        <v>326.7794745456598</v>
+        <v>259.3655483685206</v>
       </c>
       <c r="F12" t="n">
-        <v>326.7794745456598</v>
+        <v>112.8309903954055</v>
       </c>
       <c r="G12" t="n">
-        <v>221.9250995404893</v>
+        <v>112.8309903954055</v>
       </c>
       <c r="H12" t="n">
-        <v>112.8309903954056</v>
+        <v>112.8309903954055</v>
       </c>
       <c r="I12" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J12" t="n">
-        <v>78.02054839819863</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K12" t="n">
-        <v>273.4332924261731</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L12" t="n">
-        <v>597.594238489042</v>
+        <v>557.3452682424037</v>
       </c>
       <c r="M12" t="n">
-        <v>688.9893051104901</v>
+        <v>987.6050242540244</v>
       </c>
       <c r="N12" t="n">
-        <v>1146.343769973334</v>
+        <v>1444.959489116869</v>
       </c>
       <c r="O12" t="n">
-        <v>1498.318075624454</v>
+        <v>1498.318075624453</v>
       </c>
       <c r="P12" t="n">
-        <v>1763.805418834997</v>
+        <v>1763.805418834996</v>
       </c>
       <c r="Q12" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R12" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S12" t="n">
-        <v>1723.383514438537</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T12" t="n">
-        <v>1723.383514438537</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U12" t="n">
-        <v>1723.383514438537</v>
+        <v>1660.384410747979</v>
       </c>
       <c r="V12" t="n">
-        <v>1488.231406206794</v>
+        <v>1425.232302516236</v>
       </c>
       <c r="W12" t="n">
-        <v>1233.994049478593</v>
+        <v>1170.994945788035</v>
       </c>
       <c r="X12" t="n">
-        <v>1026.14254927306</v>
+        <v>963.143445582502</v>
       </c>
       <c r="Y12" t="n">
-        <v>818.3822505081062</v>
+        <v>755.3831468175481</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.77157815156053</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="C13" t="n">
-        <v>37.77157815156053</v>
+        <v>283.0292334335284</v>
       </c>
       <c r="D13" t="n">
-        <v>37.77157815156053</v>
+        <v>132.9125940211926</v>
       </c>
       <c r="E13" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F13" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G13" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H13" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J13" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K13" t="n">
-        <v>57.98179126766717</v>
+        <v>57.9817912676671</v>
       </c>
       <c r="L13" t="n">
-        <v>139.3703405264045</v>
+        <v>139.3703405264044</v>
       </c>
       <c r="M13" t="n">
-        <v>235.5722772975929</v>
+        <v>235.5722772975927</v>
       </c>
       <c r="N13" t="n">
-        <v>334.9213634561168</v>
+        <v>334.9213634561165</v>
       </c>
       <c r="O13" t="n">
-        <v>410.6700291245813</v>
+        <v>410.670029124581</v>
       </c>
       <c r="P13" t="n">
-        <v>451.9654163614356</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="Q13" t="n">
-        <v>419.9819773229859</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="R13" t="n">
-        <v>257.5837203340347</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="S13" t="n">
-        <v>37.77157815156053</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="T13" t="n">
-        <v>37.77157815156053</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="U13" t="n">
-        <v>37.77157815156053</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="V13" t="n">
-        <v>37.77157815156053</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="W13" t="n">
-        <v>37.77157815156053</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="X13" t="n">
-        <v>37.77157815156053</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.77157815156053</v>
+        <v>451.9654163614353</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.578907578026</v>
+        <v>1200.495941651035</v>
       </c>
       <c r="C14" t="n">
-        <v>1611.481846440643</v>
+        <v>1200.495941651035</v>
       </c>
       <c r="D14" t="n">
-        <v>1253.216147833892</v>
+        <v>842.2302430442846</v>
       </c>
       <c r="E14" t="n">
-        <v>867.427895235648</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="F14" t="n">
         <v>456.4419904460404</v>
       </c>
       <c r="G14" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H14" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I14" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J14" t="n">
-        <v>94.76073252434992</v>
+        <v>94.76073252435003</v>
       </c>
       <c r="K14" t="n">
-        <v>300.9175062625696</v>
+        <v>300.9175062625698</v>
       </c>
       <c r="L14" t="n">
-        <v>608.9498412559818</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M14" t="n">
-        <v>968.3017108859933</v>
+        <v>968.301710885993</v>
       </c>
       <c r="N14" t="n">
         <v>1318.836271911618</v>
       </c>
       <c r="O14" t="n">
-        <v>1604.648480067584</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P14" t="n">
-        <v>1810.908204322029</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="V14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="W14" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="X14" t="n">
-        <v>1888.578907578026</v>
+        <v>1515.113149316945</v>
       </c>
       <c r="Y14" t="n">
-        <v>1888.578907578026</v>
+        <v>1515.113149316945</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>762.8322255449284</v>
+        <v>221.569995179837</v>
       </c>
       <c r="C15" t="n">
-        <v>762.8322255449284</v>
+        <v>197.009033157016</v>
       </c>
       <c r="D15" t="n">
-        <v>613.8978158836771</v>
+        <v>197.009033157016</v>
       </c>
       <c r="E15" t="n">
-        <v>506.7478371408014</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F15" t="n">
-        <v>360.2132791676863</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G15" t="n">
-        <v>221.9250995404893</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H15" t="n">
-        <v>112.8309903954055</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I15" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J15" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K15" t="n">
-        <v>233.1843221795349</v>
+        <v>233.1843221795348</v>
       </c>
       <c r="L15" t="n">
-        <v>557.3452682424038</v>
+        <v>557.3452682424036</v>
       </c>
       <c r="M15" t="n">
-        <v>987.6050242540248</v>
+        <v>987.6050242540243</v>
       </c>
       <c r="N15" t="n">
         <v>1146.343769973334</v>
       </c>
       <c r="O15" t="n">
-        <v>1498.318075624454</v>
+        <v>1498.318075624453</v>
       </c>
       <c r="P15" t="n">
-        <v>1763.805418834997</v>
+        <v>1763.805418834996</v>
       </c>
       <c r="Q15" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R15" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S15" t="n">
-        <v>1888.578907578026</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T15" t="n">
-        <v>1688.176486099872</v>
+        <v>1522.981092960382</v>
       </c>
       <c r="U15" t="n">
-        <v>1459.981989269826</v>
+        <v>1294.786596130336</v>
       </c>
       <c r="V15" t="n">
-        <v>1224.829881038084</v>
+        <v>1059.634487898593</v>
       </c>
       <c r="W15" t="n">
-        <v>970.5925243098823</v>
+        <v>805.3971311703917</v>
       </c>
       <c r="X15" t="n">
-        <v>970.5925243098823</v>
+        <v>597.5456309648589</v>
       </c>
       <c r="Y15" t="n">
-        <v>762.8322255449284</v>
+        <v>389.785332199905</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K16" t="n">
-        <v>57.98179126766717</v>
+        <v>57.98179126766708</v>
       </c>
       <c r="L16" t="n">
-        <v>139.3703405264045</v>
+        <v>139.3703405264044</v>
       </c>
       <c r="M16" t="n">
-        <v>235.5722772975929</v>
+        <v>235.5722772975926</v>
       </c>
       <c r="N16" t="n">
-        <v>334.9213634561168</v>
+        <v>334.9213634561164</v>
       </c>
       <c r="O16" t="n">
-        <v>410.6700291245813</v>
+        <v>410.6700291245809</v>
       </c>
       <c r="P16" t="n">
-        <v>451.9654163614356</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="Q16" t="n">
-        <v>396.0075604832545</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="R16" t="n">
-        <v>233.6093034943033</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="S16" t="n">
-        <v>37.77157815156052</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="T16" t="n">
-        <v>37.77157815156052</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="U16" t="n">
-        <v>37.77157815156052</v>
+        <v>162.7745173806334</v>
       </c>
       <c r="V16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="W16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1515.113149316946</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="C17" t="n">
-        <v>1515.113149316946</v>
+        <v>1519.616390637613</v>
       </c>
       <c r="D17" t="n">
-        <v>1156.847450710196</v>
+        <v>1519.616390637613</v>
       </c>
       <c r="E17" t="n">
-        <v>771.0591981119517</v>
+        <v>1133.828138039369</v>
       </c>
       <c r="F17" t="n">
-        <v>456.4419904460404</v>
+        <v>722.8422332497616</v>
       </c>
       <c r="G17" t="n">
-        <v>37.77157815156053</v>
+        <v>304.1718209552818</v>
       </c>
       <c r="H17" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I17" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J17" t="n">
-        <v>94.76073252434992</v>
+        <v>94.76073252434981</v>
       </c>
       <c r="K17" t="n">
-        <v>300.9175062625696</v>
+        <v>300.9175062625694</v>
       </c>
       <c r="L17" t="n">
-        <v>608.9498412559819</v>
+        <v>608.9498412559813</v>
       </c>
       <c r="M17" t="n">
-        <v>968.3017108859933</v>
+        <v>968.3017108859926</v>
       </c>
       <c r="N17" t="n">
         <v>1318.836271911618</v>
       </c>
       <c r="O17" t="n">
-        <v>1604.648480067584</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P17" t="n">
-        <v>1810.908204322029</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q17" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R17" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S17" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T17" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U17" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="V17" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="W17" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="X17" t="n">
-        <v>1515.113149316946</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Y17" t="n">
-        <v>1515.113149316946</v>
+        <v>1888.578907578025</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>896.905862432478</v>
+        <v>749.1247234775008</v>
       </c>
       <c r="C18" t="n">
-        <v>739.8602895636632</v>
+        <v>630.7661804185793</v>
       </c>
       <c r="D18" t="n">
-        <v>590.9258799024119</v>
+        <v>481.8317707573281</v>
       </c>
       <c r="E18" t="n">
-        <v>431.6884248969563</v>
+        <v>322.5943157518726</v>
       </c>
       <c r="F18" t="n">
-        <v>285.1538669238413</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="G18" t="n">
-        <v>146.8656872966443</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H18" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I18" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J18" t="n">
-        <v>78.02054839819863</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K18" t="n">
-        <v>78.02054839819863</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L18" t="n">
-        <v>258.7295490988692</v>
+        <v>557.3452682424037</v>
       </c>
       <c r="M18" t="n">
-        <v>688.9893051104901</v>
+        <v>987.6050242540244</v>
       </c>
       <c r="N18" t="n">
-        <v>1146.343769973334</v>
+        <v>1444.959489116869</v>
       </c>
       <c r="O18" t="n">
-        <v>1498.318075624454</v>
+        <v>1796.933794767988</v>
       </c>
       <c r="P18" t="n">
-        <v>1763.805418834997</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Q18" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R18" t="n">
-        <v>1814.892245700622</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="S18" t="n">
-        <v>1814.892245700622</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="T18" t="n">
-        <v>1614.489824222468</v>
+        <v>1614.489824222467</v>
       </c>
       <c r="U18" t="n">
-        <v>1386.295327392422</v>
+        <v>1614.489824222467</v>
       </c>
       <c r="V18" t="n">
-        <v>1151.14321916068</v>
+        <v>1379.337715990724</v>
       </c>
       <c r="W18" t="n">
-        <v>896.905862432478</v>
+        <v>1125.100359262523</v>
       </c>
       <c r="X18" t="n">
-        <v>896.905862432478</v>
+        <v>1125.100359262523</v>
       </c>
       <c r="Y18" t="n">
-        <v>896.905862432478</v>
+        <v>917.3400604975689</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162.7745173806339</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C19" t="n">
-        <v>162.7745173806339</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D19" t="n">
-        <v>162.7745173806339</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E19" t="n">
-        <v>162.7745173806339</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J19" t="n">
-        <v>37.77157815156053</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K19" t="n">
-        <v>57.98179126766718</v>
+        <v>57.9817912676671</v>
       </c>
       <c r="L19" t="n">
-        <v>139.3703405264046</v>
+        <v>139.3703405264044</v>
       </c>
       <c r="M19" t="n">
-        <v>235.572277297593</v>
+        <v>235.5722772975927</v>
       </c>
       <c r="N19" t="n">
-        <v>334.9213634561168</v>
+        <v>334.9213634561165</v>
       </c>
       <c r="O19" t="n">
-        <v>410.6700291245814</v>
+        <v>410.670029124581</v>
       </c>
       <c r="P19" t="n">
-        <v>451.9654163614357</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="Q19" t="n">
-        <v>451.9654163614357</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="R19" t="n">
-        <v>451.9654163614357</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="S19" t="n">
-        <v>451.9654163614357</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="T19" t="n">
-        <v>451.9654163614357</v>
+        <v>451.9654163614353</v>
       </c>
       <c r="U19" t="n">
-        <v>162.7745173806339</v>
+        <v>162.7745173806335</v>
       </c>
       <c r="V19" t="n">
-        <v>162.7745173806339</v>
+        <v>162.7745173806335</v>
       </c>
       <c r="W19" t="n">
-        <v>162.7745173806339</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X19" t="n">
-        <v>162.7745173806339</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.7745173806339</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1335.788193353119</v>
+        <v>1557.516020234455</v>
       </c>
       <c r="C20" t="n">
-        <v>966.8256764127077</v>
+        <v>1557.516020234455</v>
       </c>
       <c r="D20" t="n">
-        <v>966.8256764127077</v>
+        <v>1557.516020234455</v>
       </c>
       <c r="E20" t="n">
-        <v>966.8256764127077</v>
+        <v>1171.72776763621</v>
       </c>
       <c r="F20" t="n">
-        <v>966.8256764127077</v>
+        <v>760.7418628466028</v>
       </c>
       <c r="G20" t="n">
-        <v>548.1552641182278</v>
+        <v>342.0714505521229</v>
       </c>
       <c r="H20" t="n">
-        <v>213.7240339660826</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I20" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J20" t="n">
-        <v>94.76073252435003</v>
+        <v>94.76073252434992</v>
       </c>
       <c r="K20" t="n">
-        <v>300.9175062625698</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L20" t="n">
-        <v>608.9498412559819</v>
+        <v>608.9498412559815</v>
       </c>
       <c r="M20" t="n">
-        <v>968.3017108859933</v>
+        <v>968.3017108859929</v>
       </c>
       <c r="N20" t="n">
         <v>1318.836271911618</v>
       </c>
       <c r="O20" t="n">
-        <v>1604.648480067584</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P20" t="n">
-        <v>1810.908204322029</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q20" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R20" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S20" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T20" t="n">
-        <v>1666.85108069669</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U20" t="n">
-        <v>1666.85108069669</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="V20" t="n">
-        <v>1335.788193353119</v>
+        <v>1557.516020234455</v>
       </c>
       <c r="W20" t="n">
-        <v>1335.788193353119</v>
+        <v>1557.516020234455</v>
       </c>
       <c r="X20" t="n">
-        <v>1335.788193353119</v>
+        <v>1557.516020234455</v>
       </c>
       <c r="Y20" t="n">
-        <v>1335.788193353119</v>
+        <v>1557.516020234455</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>576.4802516106333</v>
+        <v>513.4811479200757</v>
       </c>
       <c r="C21" t="n">
-        <v>402.0272223295063</v>
+        <v>339.0281186389487</v>
       </c>
       <c r="D21" t="n">
-        <v>402.0272223295063</v>
+        <v>197.009033157016</v>
       </c>
       <c r="E21" t="n">
-        <v>242.7897673240508</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F21" t="n">
-        <v>176.0597577787576</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G21" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H21" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I21" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J21" t="n">
-        <v>78.02054839819863</v>
+        <v>78.02054839819854</v>
       </c>
       <c r="K21" t="n">
-        <v>273.4332924261731</v>
+        <v>200.0559462465429</v>
       </c>
       <c r="L21" t="n">
-        <v>597.594238489042</v>
+        <v>524.2168923094116</v>
       </c>
       <c r="M21" t="n">
-        <v>1027.853994500663</v>
+        <v>954.4766483210324</v>
       </c>
       <c r="N21" t="n">
-        <v>1485.208459363507</v>
+        <v>1411.831113183877</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.182765014627</v>
+        <v>1763.805418834996</v>
       </c>
       <c r="P21" t="n">
-        <v>1888.578907578026</v>
+        <v>1763.805418834996</v>
       </c>
       <c r="Q21" t="n">
-        <v>1888.578907578026</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R21" t="n">
-        <v>1814.892245700622</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="S21" t="n">
-        <v>1649.696852561132</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="T21" t="n">
-        <v>1649.696852561132</v>
+        <v>1814.892245700621</v>
       </c>
       <c r="U21" t="n">
-        <v>1649.696852561132</v>
+        <v>1586.697748870575</v>
       </c>
       <c r="V21" t="n">
-        <v>1414.54474432939</v>
+        <v>1351.545640638832</v>
       </c>
       <c r="W21" t="n">
-        <v>1160.307387601188</v>
+        <v>1097.308283910631</v>
       </c>
       <c r="X21" t="n">
-        <v>952.4558873956553</v>
+        <v>889.4567837050977</v>
       </c>
       <c r="Y21" t="n">
-        <v>744.6955886307014</v>
+        <v>681.6964849401438</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K22" t="n">
-        <v>57.98179126766717</v>
+        <v>57.98179126766709</v>
       </c>
       <c r="L22" t="n">
-        <v>139.3703405264045</v>
+        <v>139.3703405264044</v>
       </c>
       <c r="M22" t="n">
-        <v>235.5722772975929</v>
+        <v>235.5722772975927</v>
       </c>
       <c r="N22" t="n">
-        <v>334.9213634561168</v>
+        <v>334.9213634561165</v>
       </c>
       <c r="O22" t="n">
-        <v>410.6700291245813</v>
+        <v>410.670029124581</v>
       </c>
       <c r="P22" t="n">
-        <v>451.9654163614356</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="Q22" t="n">
-        <v>451.9654163614356</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="R22" t="n">
-        <v>451.9654163614356</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="S22" t="n">
-        <v>451.9654163614356</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="T22" t="n">
-        <v>451.9654163614356</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="U22" t="n">
-        <v>451.9654163614356</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="V22" t="n">
-        <v>197.2809281555488</v>
+        <v>197.2809281555484</v>
       </c>
       <c r="W22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y22" t="n">
-        <v>37.77157815156052</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1933.544000781331</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C23" t="n">
-        <v>1564.581483840919</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.315785234169</v>
+        <v>1480.395363208548</v>
       </c>
       <c r="E23" t="n">
-        <v>820.5275326359244</v>
+        <v>1094.607110610304</v>
       </c>
       <c r="F23" t="n">
-        <v>409.5416278463169</v>
+        <v>683.6212058206963</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>265.6573977188832</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6080,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>512.3599521189926</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1362.448813819877</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C26" t="n">
-        <v>1362.448813819877</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D26" t="n">
-        <v>1004.183115213127</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3948626148824</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
         <v>207.4089578252748</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2388.358616186807</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.358616186807</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.892857925727</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1749.048653883999</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6317,31 +6317,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>55.73076775125818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>513.8405610245972</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>224.6669506791651</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V28" t="n">
-        <v>224.6669506791651</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W28" t="n">
-        <v>224.6669506791651</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X28" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2520.971603332393</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2418.885877611043</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.885877611043</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6551,34 +6551,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>2362.69689653384</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D31" t="n">
-        <v>2362.69689653384</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E31" t="n">
-        <v>2362.69689653384</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F31" t="n">
-        <v>2362.69689653384</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G31" t="n">
-        <v>2362.69689653384</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>962.9693282917581</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C32" t="n">
-        <v>962.9693282917581</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D32" t="n">
-        <v>962.9693282917581</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>577.1810756935138</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>577.1810756935138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2473.318521899075</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2254.683854871138</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="V32" t="n">
-        <v>2465.942913862886</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="W32" t="n">
-        <v>2113.174258592771</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="X32" t="n">
-        <v>1739.708500331692</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="Y32" t="n">
-        <v>1349.56916835588</v>
+        <v>1237.316979272338</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1995.909162857191</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.680947310029</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6973,16 +6973,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2382.509002921313</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2382.509002921313</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>2382.509002921313</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -6992,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1157.367208492925</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1157.367208492925</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>799.1015098861748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2601.264349431812</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2601.264349431812</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2601.264349431812</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>2270.201462088241</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W38" t="n">
-        <v>1917.432806818127</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X38" t="n">
-        <v>1543.967048557047</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y38" t="n">
-        <v>1543.967048557047</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7259,19 +7259,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2066.718496146435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2248.366960976675</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1749.341643278937</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="C41" t="n">
-        <v>1749.341643278937</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="D41" t="n">
-        <v>1749.341643278937</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
         <v>207.4089578252748</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7444,19 +7444,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2154.38804551414</v>
       </c>
       <c r="V41" t="n">
-        <v>1749.341643278937</v>
+        <v>2154.38804551414</v>
       </c>
       <c r="W41" t="n">
-        <v>1749.341643278937</v>
+        <v>2154.38804551414</v>
       </c>
       <c r="X41" t="n">
-        <v>1749.341643278937</v>
+        <v>1780.92228725306</v>
       </c>
       <c r="Y41" t="n">
-        <v>1749.341643278937</v>
+        <v>1390.782955277248</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7490,22 +7490,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152625</v>
@@ -7514,25 +7514,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632152</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632152</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632152</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>2407.97548067279</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>2312.380258669113</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>2022.963088632152</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X43" t="n">
-        <v>2022.963088632152</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y43" t="n">
-        <v>2022.963088632152</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1421.21712311552</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C44" t="n">
-        <v>1052.254606175108</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D44" t="n">
-        <v>693.9889075683579</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E44" t="n">
-        <v>308.2006549701137</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F44" t="n">
-        <v>308.2006549701137</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
         <v>207.4089578252748</v>
@@ -7681,19 +7681,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V44" t="n">
-        <v>2147.451536646714</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W44" t="n">
-        <v>1794.6828813766</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X44" t="n">
-        <v>1421.21712311552</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y44" t="n">
-        <v>1421.21712311552</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7730,46 +7730,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632152</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632152</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632152</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632152</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632152</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W46" t="n">
-        <v>2407.731920981261</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X46" t="n">
-        <v>2407.731920981261</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y46" t="n">
-        <v>2204.611553462392</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>85.43550983875423</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>123.4174987094214</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>92.23027973780532</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>85.43550983875419</v>
+        <v>85.43550983875426</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>177.7103348046292</v>
+        <v>177.7103348046294</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>85.43550983875423</v>
       </c>
       <c r="K18" t="n">
-        <v>67.07862688331147</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>225.9393903921477</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>142.8645561141738</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268814</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>190.3467055180028</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>102.2090306125194</v>
+        <v>50.29373509393416</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.04346072268808</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>346.2692436516219</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>252.9439654637738</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22643,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>171.0220216300238</v>
       </c>
       <c r="U3" t="n">
-        <v>47.56280698067036</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,10 +22868,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>22.23186360206134</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,28 +23023,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>294.2582133306193</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23083,7 +23083,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>197.8455930419602</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H11" t="n">
-        <v>235.6610881258814</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>98.42076593623695</v>
+        <v>98.420765936237</v>
       </c>
       <c r="S11" t="n">
         <v>190.3564384189606</v>
       </c>
       <c r="T11" t="n">
-        <v>219.5105486125224</v>
+        <v>86.94048676662146</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2801305603485</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23345,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>153.2744061936856</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>33.09946657580626</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.94979525863035</v>
+        <v>72.94979525863037</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T12" t="n">
         <v>198.3983972633722</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.24435693563338</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23439,7 +23439,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J13" t="n">
-        <v>67.38482253818418</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.73467267133413</v>
+        <v>55.39827731939938</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T13" t="n">
         <v>226.3758391310088</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>71.2628060742295</v>
       </c>
       <c r="C14" t="n">
-        <v>90.94680124499797</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>98.42076593623693</v>
+        <v>98.42076593623702</v>
       </c>
       <c r="S14" t="n">
         <v>190.3564384189606</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>148.393146585723</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>51.56660149995395</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>74.3088181214066</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.94979525863033</v>
+        <v>72.94979525863039</v>
       </c>
       <c r="S15" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J16" t="n">
-        <v>67.38482253818418</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>55.39827731939939</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S16" t="n">
-        <v>23.7346726713341</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T16" t="n">
         <v>226.3758391310088</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2989899909938</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>128.3847334870459</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>95.40501015245928</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>331.0869178506238</v>
+        <v>67.35067747493974</v>
       </c>
       <c r="I17" t="n">
         <v>178.9002608012674</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>98.42076593623693</v>
+        <v>98.420765936237</v>
       </c>
       <c r="S17" t="n">
         <v>190.3564384189606</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>17.23338184818908</v>
+        <v>55.53354135998352</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I18" t="n">
-        <v>74.30881812140657</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>21.66813818614864</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.623590991012</v>
@@ -23913,7 +23913,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J19" t="n">
-        <v>67.38482253818418</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.39827731939934</v>
+        <v>55.39827731939938</v>
       </c>
       <c r="R19" t="n">
         <v>160.7742744190617</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>162.7700884998088</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>29.83004417406704</v>
       </c>
       <c r="I20" t="n">
-        <v>4.707329544890541</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>98.42076593623693</v>
+        <v>98.42076593623702</v>
       </c>
       <c r="S20" t="n">
         <v>190.3564384189606</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U20" t="n">
         <v>251.2801305603485</v>
@@ -24053,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>6.846170937525358</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>79.00650294354352</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H21" t="n">
         <v>108.0031680536329</v>
       </c>
       <c r="I21" t="n">
-        <v>74.30881812140657</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T21" t="n">
         <v>198.3983972633722</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J22" t="n">
-        <v>67.38482253818418</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.39827731939934</v>
+        <v>55.39827731939938</v>
       </c>
       <c r="R22" t="n">
         <v>160.7742744190617</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>128.6087418326427</v>
+        <v>128.608741832643</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>61.74151045510206</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>114.3255010248236</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>38.52630155726061</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>123.0521766547426</v>
+        <v>263.2224083253898</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8455649466275</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>54.79094525606797</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>226.6873900059987</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>96.44405126592675</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>56.82580834555233</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>371.6325460955956</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>7.301851955827601</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>61.91178510854985</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>52.02592219651751</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25213,16 +25213,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>16.25857125419543</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25441,25 +25441,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>79.48981863842499</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>283.0057127442607</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>123.9289676594886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25605,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>159.2331682006896</v>
       </c>
       <c r="V41" t="n">
-        <v>85.98948845797324</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>51.10372702300953</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,16 +25839,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>157.4983735401882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>200.7551371759053</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>314.0003898474044</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.49548950841449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448812.4506698133</v>
+        <v>448812.4506698132</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448812.4506698132</v>
+        <v>448812.4506698133</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618239.2554712885</v>
+        <v>618239.2554712882</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618239.2554712885</v>
+        <v>618239.2554712882</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618239.2554712885</v>
+        <v>618239.2554712881</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618239.2554712882</v>
+        <v>618239.255471288</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="C2" t="n">
         <v>157852.6389047657</v>
-      </c>
-      <c r="C2" t="n">
-        <v>157852.6389047658</v>
       </c>
       <c r="D2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="E2" t="n">
-        <v>220688.4257425819</v>
+        <v>220688.4257425818</v>
       </c>
       <c r="F2" t="n">
-        <v>220688.4257425819</v>
+        <v>220688.4257425817</v>
       </c>
       <c r="G2" t="n">
-        <v>220688.4257425818</v>
+        <v>220688.4257425817</v>
       </c>
       <c r="H2" t="n">
-        <v>220688.4257425818</v>
+        <v>220688.4257425817</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="K2" t="n">
         <v>274694.9795149699</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149696</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>232690.6085665892</v>
+        <v>232690.6085665889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>184739.887991218</v>
+        <v>184739.8879912182</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>57598.62967555047</v>
+        <v>57598.62967555038</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>33147.79076819283</v>
+        <v>33147.79076819281</v>
       </c>
       <c r="F5" t="n">
-        <v>33147.79076819283</v>
+        <v>33147.7907681928</v>
       </c>
       <c r="G5" t="n">
-        <v>33147.79076819283</v>
+        <v>33147.79076819281</v>
       </c>
       <c r="H5" t="n">
-        <v>33147.79076819283</v>
+        <v>33147.79076819281</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3519.670396837078</v>
+        <v>-8698.340223203359</v>
       </c>
       <c r="C6" t="n">
-        <v>84289.10192838483</v>
+        <v>72071.09130834433</v>
       </c>
       <c r="D6" t="n">
-        <v>84289.10192838477</v>
+        <v>72071.0913083443</v>
       </c>
       <c r="E6" t="n">
-        <v>-71372.21417389694</v>
+        <v>-80283.07811826267</v>
       </c>
       <c r="F6" t="n">
-        <v>161318.3943926923</v>
+        <v>152407.5304483262</v>
       </c>
       <c r="G6" t="n">
-        <v>161318.3943926921</v>
+        <v>152407.5304483261</v>
       </c>
       <c r="H6" t="n">
-        <v>161318.3943926921</v>
+        <v>152407.5304483262</v>
       </c>
       <c r="I6" t="n">
-        <v>13636.77635537706</v>
+        <v>7568.362609557799</v>
       </c>
       <c r="J6" t="n">
-        <v>135316.7217474891</v>
+        <v>129248.3080016698</v>
       </c>
       <c r="K6" t="n">
-        <v>198376.6643465951</v>
+        <v>192308.2506007761</v>
       </c>
       <c r="L6" t="n">
-        <v>198376.6643465951</v>
+        <v>192308.2506007759</v>
       </c>
       <c r="M6" t="n">
-        <v>140778.0346710449</v>
+        <v>134709.6209252255</v>
       </c>
       <c r="N6" t="n">
-        <v>198376.6643465952</v>
+        <v>192308.250600776</v>
       </c>
       <c r="O6" t="n">
-        <v>198376.6643465953</v>
+        <v>192308.2506007761</v>
       </c>
       <c r="P6" t="n">
-        <v>198376.6643465951</v>
+        <v>192308.2506007761</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.7335492204969</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="F3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="G3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="H3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>472.1447268945066</v>
+        <v>472.1447268945063</v>
       </c>
       <c r="F4" t="n">
-        <v>472.1447268945065</v>
+        <v>472.1447268945063</v>
       </c>
       <c r="G4" t="n">
-        <v>472.1447268945066</v>
+        <v>472.1447268945063</v>
       </c>
       <c r="H4" t="n">
-        <v>472.1447268945065</v>
+        <v>472.1447268945063</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26822,7 +26822,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.7335492204969</v>
+        <v>203.7335492204967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>174.0101149965897</v>
+        <v>174.0101149965899</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>231.1304380168475</v>
+        <v>231.1304380168472</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>202.1425458600491</v>
+        <v>202.1425458600492</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168475</v>
+        <v>231.1304380168471</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168475</v>
+        <v>231.1304380168472</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.819029343599987</v>
+        <v>0.8190293435999861</v>
       </c>
       <c r="H11" t="n">
-        <v>8.38788426514337</v>
+        <v>8.387884265143361</v>
       </c>
       <c r="I11" t="n">
-        <v>31.57562876913853</v>
+        <v>31.5756287691385</v>
       </c>
       <c r="J11" t="n">
-        <v>69.51409175136946</v>
+        <v>69.51409175136939</v>
       </c>
       <c r="K11" t="n">
-        <v>104.1836038659569</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L11" t="n">
-        <v>129.2489731401551</v>
+        <v>129.2489731401549</v>
       </c>
       <c r="M11" t="n">
-        <v>143.8143862294013</v>
+        <v>143.8143862294012</v>
       </c>
       <c r="N11" t="n">
-        <v>146.1414533519048</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O11" t="n">
-        <v>137.9972303164824</v>
+        <v>137.9972303164823</v>
       </c>
       <c r="P11" t="n">
-        <v>117.7774433963577</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.44595502868317</v>
+        <v>88.44595502868307</v>
       </c>
       <c r="R11" t="n">
-        <v>51.44835200491273</v>
+        <v>51.44835200491268</v>
       </c>
       <c r="S11" t="n">
-        <v>18.66363116728472</v>
+        <v>18.6636311672847</v>
       </c>
       <c r="T11" t="n">
-        <v>3.585300951608945</v>
+        <v>3.585300951608941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06552234748799896</v>
+        <v>0.06552234748799889</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4382193322855972</v>
+        <v>0.4382193322855967</v>
       </c>
       <c r="H12" t="n">
-        <v>4.232276182863531</v>
+        <v>4.232276182863527</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0878147300085</v>
+        <v>15.08781473000849</v>
       </c>
       <c r="J12" t="n">
-        <v>41.4021168279125</v>
+        <v>41.40211682791246</v>
       </c>
       <c r="K12" t="n">
-        <v>70.76281209104751</v>
+        <v>70.76281209104744</v>
       </c>
       <c r="L12" t="n">
-        <v>95.14933352981795</v>
+        <v>95.14933352981784</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0347843251708</v>
+        <v>111.0347843251707</v>
       </c>
       <c r="N12" t="n">
-        <v>113.9735446719457</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O12" t="n">
-        <v>104.2635268355122</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P12" t="n">
-        <v>83.6806723203962</v>
+        <v>83.6806723203961</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.93831336333343</v>
+        <v>55.93831336333337</v>
       </c>
       <c r="R12" t="n">
-        <v>27.20803889401279</v>
+        <v>27.20803889401276</v>
       </c>
       <c r="S12" t="n">
-        <v>8.139731895743434</v>
+        <v>8.139731895743425</v>
       </c>
       <c r="T12" t="n">
-        <v>1.766331431449402</v>
+        <v>1.7663314314494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02883021922931562</v>
+        <v>0.02883021922931558</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3673883674467977</v>
+        <v>0.3673883674467973</v>
       </c>
       <c r="H13" t="n">
-        <v>3.266416576026986</v>
+        <v>3.266416576026982</v>
       </c>
       <c r="I13" t="n">
-        <v>11.04837017740007</v>
+        <v>11.04837017740005</v>
       </c>
       <c r="J13" t="n">
-        <v>25.9743575784886</v>
+        <v>25.97435757848857</v>
       </c>
       <c r="K13" t="n">
-        <v>42.68384850881885</v>
+        <v>42.68384850881881</v>
       </c>
       <c r="L13" t="n">
-        <v>54.62063055659028</v>
+        <v>54.62063055659022</v>
       </c>
       <c r="M13" t="n">
-        <v>57.58979654441029</v>
+        <v>57.58979654441023</v>
       </c>
       <c r="N13" t="n">
-        <v>56.22043990210864</v>
+        <v>56.22043990210857</v>
       </c>
       <c r="O13" t="n">
-        <v>51.92867579148012</v>
+        <v>51.92867579148006</v>
       </c>
       <c r="P13" t="n">
-        <v>44.43395309556541</v>
+        <v>44.43395309556536</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.76376593229504</v>
+        <v>30.763765932295</v>
       </c>
       <c r="R13" t="n">
-        <v>16.51911695810783</v>
+        <v>16.51911695810781</v>
       </c>
       <c r="S13" t="n">
-        <v>6.402577276322827</v>
+        <v>6.40257727632282</v>
       </c>
       <c r="T13" t="n">
-        <v>1.569750297272681</v>
+        <v>1.569750297272679</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02003936549709808</v>
+        <v>0.02003936549709806</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8190293435999871</v>
+        <v>0.8190293435999859</v>
       </c>
       <c r="H14" t="n">
-        <v>8.387884265143372</v>
+        <v>8.387884265143358</v>
       </c>
       <c r="I14" t="n">
-        <v>31.57562876913854</v>
+        <v>31.57562876913849</v>
       </c>
       <c r="J14" t="n">
-        <v>69.51409175136948</v>
+        <v>69.51409175136936</v>
       </c>
       <c r="K14" t="n">
-        <v>104.183603865957</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L14" t="n">
-        <v>129.2489731401551</v>
+        <v>129.2489731401549</v>
       </c>
       <c r="M14" t="n">
-        <v>143.8143862294014</v>
+        <v>143.8143862294011</v>
       </c>
       <c r="N14" t="n">
-        <v>146.1414533519048</v>
+        <v>146.1414533519046</v>
       </c>
       <c r="O14" t="n">
-        <v>137.9972303164824</v>
+        <v>137.9972303164822</v>
       </c>
       <c r="P14" t="n">
-        <v>117.7774433963578</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.44595502868317</v>
+        <v>88.44595502868304</v>
       </c>
       <c r="R14" t="n">
-        <v>51.44835200491274</v>
+        <v>51.44835200491266</v>
       </c>
       <c r="S14" t="n">
-        <v>18.66363116728473</v>
+        <v>18.6636311672847</v>
       </c>
       <c r="T14" t="n">
-        <v>3.585300951608946</v>
+        <v>3.58530095160894</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06552234748799896</v>
+        <v>0.06552234748799886</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4382193322855973</v>
+        <v>0.4382193322855966</v>
       </c>
       <c r="H15" t="n">
-        <v>4.232276182863532</v>
+        <v>4.232276182863526</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08781473000851</v>
+        <v>15.08781473000848</v>
       </c>
       <c r="J15" t="n">
-        <v>41.40211682791251</v>
+        <v>41.40211682791244</v>
       </c>
       <c r="K15" t="n">
-        <v>70.76281209104752</v>
+        <v>70.76281209104741</v>
       </c>
       <c r="L15" t="n">
-        <v>95.14933352981795</v>
+        <v>95.14933352981781</v>
       </c>
       <c r="M15" t="n">
-        <v>111.0347843251708</v>
+        <v>111.0347843251707</v>
       </c>
       <c r="N15" t="n">
-        <v>113.9735446719458</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O15" t="n">
-        <v>104.2635268355123</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P15" t="n">
-        <v>83.68067232039621</v>
+        <v>83.68067232039608</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.93831336333344</v>
+        <v>55.93831336333335</v>
       </c>
       <c r="R15" t="n">
-        <v>27.20803889401279</v>
+        <v>27.20803889401275</v>
       </c>
       <c r="S15" t="n">
-        <v>8.139731895743434</v>
+        <v>8.139731895743422</v>
       </c>
       <c r="T15" t="n">
-        <v>1.766331431449402</v>
+        <v>1.7663314314494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02883021922931562</v>
+        <v>0.02883021922931558</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3673883674467978</v>
+        <v>0.3673883674467972</v>
       </c>
       <c r="H16" t="n">
-        <v>3.266416576026986</v>
+        <v>3.266416576026981</v>
       </c>
       <c r="I16" t="n">
-        <v>11.04837017740007</v>
+        <v>11.04837017740005</v>
       </c>
       <c r="J16" t="n">
-        <v>25.9743575784886</v>
+        <v>25.97435757848856</v>
       </c>
       <c r="K16" t="n">
-        <v>42.68384850881886</v>
+        <v>42.68384850881879</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62063055659029</v>
+        <v>54.62063055659021</v>
       </c>
       <c r="M16" t="n">
-        <v>57.58979654441031</v>
+        <v>57.58979654441021</v>
       </c>
       <c r="N16" t="n">
-        <v>56.22043990210864</v>
+        <v>56.22043990210856</v>
       </c>
       <c r="O16" t="n">
-        <v>51.92867579148012</v>
+        <v>51.92867579148005</v>
       </c>
       <c r="P16" t="n">
-        <v>44.43395309556541</v>
+        <v>44.43395309556534</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.76376593229504</v>
+        <v>30.76376593229499</v>
       </c>
       <c r="R16" t="n">
-        <v>16.51911695810783</v>
+        <v>16.51911695810781</v>
       </c>
       <c r="S16" t="n">
-        <v>6.402577276322828</v>
+        <v>6.402577276322818</v>
       </c>
       <c r="T16" t="n">
-        <v>1.569750297272681</v>
+        <v>1.569750297272679</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02003936549709808</v>
+        <v>0.02003936549709805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8190293435999871</v>
+        <v>0.8190293435999861</v>
       </c>
       <c r="H17" t="n">
-        <v>8.387884265143372</v>
+        <v>8.387884265143361</v>
       </c>
       <c r="I17" t="n">
-        <v>31.57562876913854</v>
+        <v>31.5756287691385</v>
       </c>
       <c r="J17" t="n">
-        <v>69.51409175136948</v>
+        <v>69.51409175136939</v>
       </c>
       <c r="K17" t="n">
-        <v>104.183603865957</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L17" t="n">
-        <v>129.2489731401551</v>
+        <v>129.2489731401549</v>
       </c>
       <c r="M17" t="n">
-        <v>143.8143862294014</v>
+        <v>143.8143862294012</v>
       </c>
       <c r="N17" t="n">
-        <v>146.1414533519048</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O17" t="n">
-        <v>137.9972303164824</v>
+        <v>137.9972303164823</v>
       </c>
       <c r="P17" t="n">
-        <v>117.7774433963578</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.44595502868317</v>
+        <v>88.44595502868307</v>
       </c>
       <c r="R17" t="n">
-        <v>51.44835200491274</v>
+        <v>51.44835200491268</v>
       </c>
       <c r="S17" t="n">
-        <v>18.66363116728473</v>
+        <v>18.6636311672847</v>
       </c>
       <c r="T17" t="n">
-        <v>3.585300951608946</v>
+        <v>3.585300951608941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06552234748799896</v>
+        <v>0.06552234748799889</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4382193322855973</v>
+        <v>0.4382193322855967</v>
       </c>
       <c r="H18" t="n">
-        <v>4.232276182863532</v>
+        <v>4.232276182863527</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08781473000851</v>
+        <v>15.08781473000849</v>
       </c>
       <c r="J18" t="n">
-        <v>41.40211682791251</v>
+        <v>41.40211682791246</v>
       </c>
       <c r="K18" t="n">
-        <v>70.76281209104752</v>
+        <v>70.76281209104744</v>
       </c>
       <c r="L18" t="n">
-        <v>95.14933352981795</v>
+        <v>95.14933352981784</v>
       </c>
       <c r="M18" t="n">
-        <v>111.0347843251708</v>
+        <v>111.0347843251707</v>
       </c>
       <c r="N18" t="n">
-        <v>113.9735446719458</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O18" t="n">
-        <v>104.2635268355123</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P18" t="n">
-        <v>83.68067232039621</v>
+        <v>83.6806723203961</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.93831336333344</v>
+        <v>55.93831336333337</v>
       </c>
       <c r="R18" t="n">
-        <v>27.20803889401279</v>
+        <v>27.20803889401276</v>
       </c>
       <c r="S18" t="n">
-        <v>8.139731895743434</v>
+        <v>8.139731895743425</v>
       </c>
       <c r="T18" t="n">
-        <v>1.766331431449402</v>
+        <v>1.7663314314494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02883021922931562</v>
+        <v>0.02883021922931558</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3673883674467978</v>
+        <v>0.3673883674467973</v>
       </c>
       <c r="H19" t="n">
-        <v>3.266416576026986</v>
+        <v>3.266416576026982</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04837017740007</v>
+        <v>11.04837017740005</v>
       </c>
       <c r="J19" t="n">
-        <v>25.9743575784886</v>
+        <v>25.97435757848857</v>
       </c>
       <c r="K19" t="n">
-        <v>42.68384850881886</v>
+        <v>42.68384850881881</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62063055659029</v>
+        <v>54.62063055659022</v>
       </c>
       <c r="M19" t="n">
-        <v>57.58979654441031</v>
+        <v>57.58979654441023</v>
       </c>
       <c r="N19" t="n">
-        <v>56.22043990210864</v>
+        <v>56.22043990210857</v>
       </c>
       <c r="O19" t="n">
-        <v>51.92867579148012</v>
+        <v>51.92867579148006</v>
       </c>
       <c r="P19" t="n">
-        <v>44.43395309556541</v>
+        <v>44.43395309556536</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.76376593229504</v>
+        <v>30.763765932295</v>
       </c>
       <c r="R19" t="n">
-        <v>16.51911695810783</v>
+        <v>16.51911695810781</v>
       </c>
       <c r="S19" t="n">
-        <v>6.402577276322828</v>
+        <v>6.40257727632282</v>
       </c>
       <c r="T19" t="n">
-        <v>1.569750297272681</v>
+        <v>1.569750297272679</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02003936549709808</v>
+        <v>0.02003936549709806</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8190293435999871</v>
+        <v>0.819029343599986</v>
       </c>
       <c r="H20" t="n">
-        <v>8.387884265143372</v>
+        <v>8.387884265143359</v>
       </c>
       <c r="I20" t="n">
-        <v>31.57562876913854</v>
+        <v>31.57562876913849</v>
       </c>
       <c r="J20" t="n">
-        <v>69.51409175136948</v>
+        <v>69.51409175136938</v>
       </c>
       <c r="K20" t="n">
-        <v>104.183603865957</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L20" t="n">
-        <v>129.2489731401551</v>
+        <v>129.2489731401549</v>
       </c>
       <c r="M20" t="n">
-        <v>143.8143862294014</v>
+        <v>143.8143862294012</v>
       </c>
       <c r="N20" t="n">
-        <v>146.1414533519048</v>
+        <v>146.1414533519046</v>
       </c>
       <c r="O20" t="n">
-        <v>137.9972303164824</v>
+        <v>137.9972303164822</v>
       </c>
       <c r="P20" t="n">
-        <v>117.7774433963578</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.44595502868317</v>
+        <v>88.44595502868306</v>
       </c>
       <c r="R20" t="n">
-        <v>51.44835200491274</v>
+        <v>51.44835200491267</v>
       </c>
       <c r="S20" t="n">
-        <v>18.66363116728473</v>
+        <v>18.6636311672847</v>
       </c>
       <c r="T20" t="n">
-        <v>3.585300951608946</v>
+        <v>3.585300951608941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06552234748799896</v>
+        <v>0.06552234748799887</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4382193322855973</v>
+        <v>0.4382193322855967</v>
       </c>
       <c r="H21" t="n">
-        <v>4.232276182863532</v>
+        <v>4.232276182863526</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08781473000851</v>
+        <v>15.08781473000848</v>
       </c>
       <c r="J21" t="n">
-        <v>41.40211682791251</v>
+        <v>41.40211682791245</v>
       </c>
       <c r="K21" t="n">
-        <v>70.76281209104752</v>
+        <v>70.76281209104742</v>
       </c>
       <c r="L21" t="n">
-        <v>95.14933352981795</v>
+        <v>95.14933352981782</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0347843251708</v>
+        <v>111.0347843251707</v>
       </c>
       <c r="N21" t="n">
-        <v>113.9735446719458</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O21" t="n">
-        <v>104.2635268355123</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P21" t="n">
-        <v>83.68067232039621</v>
+        <v>83.68067232039608</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.93831336333344</v>
+        <v>55.93831336333336</v>
       </c>
       <c r="R21" t="n">
-        <v>27.20803889401279</v>
+        <v>27.20803889401276</v>
       </c>
       <c r="S21" t="n">
-        <v>8.139731895743434</v>
+        <v>8.139731895743424</v>
       </c>
       <c r="T21" t="n">
-        <v>1.766331431449402</v>
+        <v>1.7663314314494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02883021922931562</v>
+        <v>0.02883021922931558</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3673883674467978</v>
+        <v>0.3673883674467973</v>
       </c>
       <c r="H22" t="n">
-        <v>3.266416576026986</v>
+        <v>3.266416576026982</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04837017740007</v>
+        <v>11.04837017740005</v>
       </c>
       <c r="J22" t="n">
-        <v>25.9743575784886</v>
+        <v>25.97435757848856</v>
       </c>
       <c r="K22" t="n">
-        <v>42.68384850881886</v>
+        <v>42.6838485088188</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62063055659029</v>
+        <v>54.62063055659021</v>
       </c>
       <c r="M22" t="n">
-        <v>57.58979654441031</v>
+        <v>57.58979654441022</v>
       </c>
       <c r="N22" t="n">
-        <v>56.22043990210864</v>
+        <v>56.22043990210857</v>
       </c>
       <c r="O22" t="n">
-        <v>51.92867579148012</v>
+        <v>51.92867579148005</v>
       </c>
       <c r="P22" t="n">
-        <v>44.43395309556541</v>
+        <v>44.43395309556535</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.76376593229504</v>
+        <v>30.763765932295</v>
       </c>
       <c r="R22" t="n">
-        <v>16.51911695810783</v>
+        <v>16.51911695810781</v>
       </c>
       <c r="S22" t="n">
-        <v>6.402577276322828</v>
+        <v>6.402577276322819</v>
       </c>
       <c r="T22" t="n">
-        <v>1.569750297272681</v>
+        <v>1.569750297272679</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02003936549709808</v>
+        <v>0.02003936549709806</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.56480239675695</v>
+        <v>57.56480239675687</v>
       </c>
       <c r="K11" t="n">
-        <v>208.2391653921411</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L11" t="n">
-        <v>311.1437727206182</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M11" t="n">
-        <v>362.9816864949611</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N11" t="n">
-        <v>354.0753141672981</v>
+        <v>354.0753141672979</v>
       </c>
       <c r="O11" t="n">
-        <v>288.6992001575411</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P11" t="n">
-        <v>208.3431558125708</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.45525581413837</v>
+        <v>78.45525581413827</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.65552550165464</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>197.3866101292671</v>
+        <v>197.386610129267</v>
       </c>
       <c r="L12" t="n">
-        <v>327.435299053403</v>
+        <v>327.4352990534028</v>
       </c>
       <c r="M12" t="n">
-        <v>92.31824911257385</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N12" t="n">
-        <v>461.974206932166</v>
+        <v>461.9742069321658</v>
       </c>
       <c r="O12" t="n">
-        <v>355.5296016677974</v>
+        <v>53.89756212887301</v>
       </c>
       <c r="P12" t="n">
-        <v>268.1690335460031</v>
+        <v>268.169033546003</v>
       </c>
       <c r="Q12" t="n">
         <v>126.033827013161</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.414356682936</v>
+        <v>20.41435668293595</v>
       </c>
       <c r="L13" t="n">
-        <v>82.21065581690641</v>
+        <v>82.21065581690635</v>
       </c>
       <c r="M13" t="n">
-        <v>97.17367350625088</v>
+        <v>97.17367350625082</v>
       </c>
       <c r="N13" t="n">
         <v>100.3526122813372</v>
       </c>
       <c r="O13" t="n">
-        <v>76.51380370551979</v>
+        <v>76.51380370551973</v>
       </c>
       <c r="P13" t="n">
-        <v>41.71251236045889</v>
+        <v>41.71251236045885</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.56480239675696</v>
+        <v>57.56480239675685</v>
       </c>
       <c r="K14" t="n">
-        <v>208.2391653921412</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L14" t="n">
-        <v>311.1437727206183</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M14" t="n">
-        <v>362.9816864949611</v>
+        <v>362.9816864949609</v>
       </c>
       <c r="N14" t="n">
-        <v>354.0753141672981</v>
+        <v>354.0753141672978</v>
       </c>
       <c r="O14" t="n">
-        <v>288.6992001575411</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P14" t="n">
-        <v>208.3431558125708</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.45525581413837</v>
+        <v>78.45525581413824</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>197.3866101292671</v>
+        <v>197.386610129267</v>
       </c>
       <c r="L15" t="n">
-        <v>327.435299053403</v>
+        <v>327.4352990534028</v>
       </c>
       <c r="M15" t="n">
-        <v>434.6058141531524</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N15" t="n">
         <v>160.3421673932417</v>
       </c>
       <c r="O15" t="n">
-        <v>355.5296016677974</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P15" t="n">
-        <v>268.1690335460031</v>
+        <v>268.169033546003</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.033827013161</v>
+        <v>126.0338270131609</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41435668293601</v>
+        <v>20.41435668293594</v>
       </c>
       <c r="L16" t="n">
-        <v>82.21065581690644</v>
+        <v>82.21065581690635</v>
       </c>
       <c r="M16" t="n">
-        <v>97.17367350625089</v>
+        <v>97.17367350625079</v>
       </c>
       <c r="N16" t="n">
-        <v>100.3526122813372</v>
+        <v>100.3526122813371</v>
       </c>
       <c r="O16" t="n">
-        <v>76.51380370551979</v>
+        <v>76.51380370551972</v>
       </c>
       <c r="P16" t="n">
-        <v>41.7125123604589</v>
+        <v>41.71251236045883</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.56480239675696</v>
+        <v>57.56480239675687</v>
       </c>
       <c r="K17" t="n">
-        <v>208.2391653921412</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L17" t="n">
-        <v>311.1437727206183</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M17" t="n">
-        <v>362.9816864949611</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N17" t="n">
-        <v>354.0753141672981</v>
+        <v>354.0753141672979</v>
       </c>
       <c r="O17" t="n">
-        <v>288.6992001575411</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P17" t="n">
-        <v>208.3431558125708</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.45525581413837</v>
+        <v>78.45525581413827</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>40.65552550165465</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>197.386610129267</v>
       </c>
       <c r="L18" t="n">
-        <v>182.5343441420915</v>
+        <v>327.4352990534028</v>
       </c>
       <c r="M18" t="n">
-        <v>434.6058141531524</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N18" t="n">
-        <v>461.974206932166</v>
+        <v>461.9742069321658</v>
       </c>
       <c r="O18" t="n">
-        <v>355.5296016677974</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P18" t="n">
-        <v>268.1690335460031</v>
+        <v>92.57082102023969</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.033827013161</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.41435668293601</v>
+        <v>20.41435668293595</v>
       </c>
       <c r="L19" t="n">
-        <v>82.21065581690644</v>
+        <v>82.21065581690635</v>
       </c>
       <c r="M19" t="n">
-        <v>97.17367350625089</v>
+        <v>97.17367350625082</v>
       </c>
       <c r="N19" t="n">
         <v>100.3526122813372</v>
       </c>
       <c r="O19" t="n">
-        <v>76.51380370551979</v>
+        <v>76.51380370551973</v>
       </c>
       <c r="P19" t="n">
-        <v>41.7125123604589</v>
+        <v>41.71251236045885</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.56480239675696</v>
+        <v>57.56480239675686</v>
       </c>
       <c r="K20" t="n">
-        <v>208.2391653921412</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L20" t="n">
-        <v>311.1437727206183</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M20" t="n">
-        <v>362.9816864949611</v>
+        <v>362.9816864949609</v>
       </c>
       <c r="N20" t="n">
-        <v>354.0753141672981</v>
+        <v>354.0753141672978</v>
       </c>
       <c r="O20" t="n">
-        <v>288.6992001575411</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P20" t="n">
-        <v>208.3431558125708</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.45525581413837</v>
+        <v>78.45525581413825</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.65552550165465</v>
+        <v>40.65552550165459</v>
       </c>
       <c r="K21" t="n">
-        <v>197.3866101292671</v>
+        <v>123.2680786346912</v>
       </c>
       <c r="L21" t="n">
-        <v>327.435299053403</v>
+        <v>327.4352990534028</v>
       </c>
       <c r="M21" t="n">
-        <v>434.6058141531524</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N21" t="n">
-        <v>461.974206932166</v>
+        <v>461.9742069321658</v>
       </c>
       <c r="O21" t="n">
-        <v>355.5296016677974</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P21" t="n">
-        <v>51.91529551858536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>126.0338270131609</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.41435668293601</v>
+        <v>20.41435668293595</v>
       </c>
       <c r="L22" t="n">
-        <v>82.21065581690644</v>
+        <v>82.21065581690635</v>
       </c>
       <c r="M22" t="n">
-        <v>97.17367350625089</v>
+        <v>97.17367350625081</v>
       </c>
       <c r="N22" t="n">
         <v>100.3526122813372</v>
       </c>
       <c r="O22" t="n">
-        <v>76.51380370551979</v>
+        <v>76.51380370551973</v>
       </c>
       <c r="P22" t="n">
-        <v>41.7125123604589</v>
+        <v>41.71251236045884</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37165,10 +37165,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37393,7 +37393,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>410.0055067279158</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338902</v>
@@ -37627,7 +37627,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,10 +37873,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38098,7 +38098,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
